--- a/Assets/Excel/font.xlsx
+++ b/Assets/Excel/font.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\HiSpin\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01758EB-BE96-411F-B290-974319DFD4B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F2435A-6D64-4FF2-B86D-28B564DE6FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="24930" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="240" windowWidth="14715" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="341">
   <si>
     <t>ChineseSimplified</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,11 +522,6 @@
   </si>
   <si>
     <t>lang0061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NEXT SLOTS IN:
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1368,6 +1361,153 @@
   </si>
   <si>
     <t>lang0145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT SLOTS IN:
+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paypal Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can cash out dollar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayPal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play slots and get tickets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO THANKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HI
+SPIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Always a Winer!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offerwall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giveaways</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMER 
+MOON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLIGHT
+DUSK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINY 
+DREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURPLE
+CLOUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUNNY
+BEACH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FANTASY
+LAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSTERY
+CASTLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTUMN
+LEAVES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIGHTS
+PARIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGYPT
+DESERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOPE 
+ISLAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIRY
+TALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADGEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fyber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play Lucky Draw with tickets
+ to earn money. Good Luck!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNLOCK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1700,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63D8EE2-DF27-4AE0-A21A-73D52C44B107}">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2080,7 +2220,7 @@
         <v>89</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -2221,764 +2361,888 @@
     </row>
     <row r="64" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" t="s">
         <v>138</v>
-      </c>
-      <c r="B71" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="114" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B118" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>293</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>276</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>278</v>
+      <c r="B152" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>278</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>280</v>
+      <c r="B154" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>285</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="B161" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="B162" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="B163" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="B164" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>291</v>
+      <c r="B165" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B166" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B172" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B173" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B174" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B175" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B176" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2986,35 +3250,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15948A67-D324-4384-8545-B2ECAD868F74}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EDB740-D3B6-4970-BDA1-2300D5C13D2B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>